--- a/data/ngonyePlantModels/models/modelStatistics.xlsx
+++ b/data/ngonyePlantModels/models/modelStatistics.xlsx
@@ -5,22 +5,36 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andy\ngonye-models\processing\data\ngonyePlantModels\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\andy\ngonye-models\data\ngonyePlantModels\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148BF56B-7170-4A75-AD6C-CC11448174AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22646AFE-C6F9-4DCE-8185-617F143CEEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{479FD4AC-F676-4A84-9A5D-4706997EC6DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{479FD4AC-F676-4A84-9A5D-4706997EC6DA}"/>
   </bookViews>
   <sheets>
     <sheet name="modelStatistics" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="63">
   <si>
     <t>type</t>
   </si>
@@ -203,6 +217,12 @@
   </si>
   <si>
     <t>Base case model as presented to EPC bidders with FS parameters  - Hydrology to 2024</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Results</t>
   </si>
 </sst>
 </file>
@@ -535,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -712,6 +732,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -758,7 +793,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -772,6 +807,17 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1150,18 +1196,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC7EE8D-99CB-4C89-A12B-35DA9C844D94}">
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC1" sqref="A1:AC2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.44140625" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" customWidth="1"/>
     <col min="3" max="3" width="69" customWidth="1"/>
-    <col min="5" max="21" width="7.33203125" customWidth="1"/>
+    <col min="5" max="21" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1253,101 +1299,104 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2024</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="K2" s="8">
+        <v>180</v>
+      </c>
+      <c r="L2" s="8">
+        <v>4</v>
+      </c>
+      <c r="M2" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="N2" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="O2" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="8">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>275</v>
+      </c>
+      <c r="R2" s="8">
+        <v>220</v>
+      </c>
+      <c r="S2" s="8">
+        <v>46.5</v>
+      </c>
+      <c r="T2" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="U2" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" s="9">
+        <v>865</v>
+      </c>
+      <c r="W2" s="10">
+        <v>871</v>
+      </c>
+      <c r="X2" s="8">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="Z2" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="12">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="AB2" s="12">
+        <v>2.32E-3</v>
+      </c>
+      <c r="AC2" s="12">
+        <v>6.8199999999999997E-3</v>
+      </c>
+      <c r="AD2" s="8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2">
-        <v>2016</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>180</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>10</v>
-      </c>
-      <c r="N2">
-        <v>25.4</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>50</v>
-      </c>
-      <c r="Q2">
-        <v>275</v>
-      </c>
-      <c r="R2">
-        <v>220</v>
-      </c>
-      <c r="S2">
-        <v>46.5</v>
-      </c>
-      <c r="T2">
-        <v>48.2</v>
-      </c>
-      <c r="U2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V2" s="4">
-        <v>848</v>
-      </c>
-      <c r="W2" s="5">
-        <v>852</v>
-      </c>
-      <c r="X2">
-        <v>26.6</v>
-      </c>
-      <c r="Y2">
-        <v>0.53800000000000003</v>
-      </c>
-      <c r="Z2" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="11">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="AB2" s="11">
-        <v>1.03E-2</v>
-      </c>
-      <c r="AC2" s="11">
-        <v>2.1399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -1362,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="G3">
-        <v>2024</v>
+        <v>2016</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -1407,39 +1456,39 @@
         <v>1</v>
       </c>
       <c r="V3" s="4">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="W3" s="5">
-        <v>869</v>
+        <v>852</v>
       </c>
       <c r="X3">
-        <v>26</v>
+        <v>26.6</v>
       </c>
       <c r="Y3">
-        <v>0.54500000000000004</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="Z3" s="11">
         <v>0</v>
       </c>
       <c r="AA3" s="11">
-        <v>4.4999999999999997E-3</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="AB3" s="11">
-        <v>1.12E-2</v>
+        <v>1.03E-2</v>
       </c>
       <c r="AC3" s="11">
-        <v>1.5699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+        <v>2.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -1451,7 +1500,7 @@
         <v>30</v>
       </c>
       <c r="G4">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
@@ -1469,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="M4">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="N4">
         <v>25.4</v>
@@ -1496,123 +1545,120 @@
         <v>1</v>
       </c>
       <c r="V4" s="4">
+        <v>860</v>
+      </c>
+      <c r="W4" s="5">
+        <v>869</v>
+      </c>
+      <c r="X4">
+        <v>26</v>
+      </c>
+      <c r="Y4">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="Z4" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="11">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="AB4" s="11">
+        <v>1.12E-2</v>
+      </c>
+      <c r="AC4" s="11">
+        <v>1.5699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>2016</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>180</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>7.8</v>
+      </c>
+      <c r="N5">
+        <v>25.4</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>50</v>
+      </c>
+      <c r="Q5">
+        <v>275</v>
+      </c>
+      <c r="R5">
+        <v>220</v>
+      </c>
+      <c r="S5">
+        <v>46.5</v>
+      </c>
+      <c r="T5">
+        <v>48.2</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4">
         <v>853</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W5" s="5">
         <v>858</v>
       </c>
-      <c r="X4">
+      <c r="X5">
         <v>27.2</v>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <v>0.54100000000000004</v>
       </c>
-      <c r="Z4" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="11">
+      <c r="Z5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="11">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="AB4" s="11">
+      <c r="AB5" s="11">
         <v>2.6199999999999999E-3</v>
       </c>
-      <c r="AC4" s="11">
+      <c r="AC5" s="11">
         <v>1.37E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2024</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>180</v>
-      </c>
-      <c r="L5" s="8">
-        <v>4</v>
-      </c>
-      <c r="M5" s="8">
-        <v>7.8</v>
-      </c>
-      <c r="N5" s="8">
-        <v>25.4</v>
-      </c>
-      <c r="O5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P5" s="8">
-        <v>50</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>275</v>
-      </c>
-      <c r="R5" s="8">
-        <v>220</v>
-      </c>
-      <c r="S5" s="8">
-        <v>46.5</v>
-      </c>
-      <c r="T5" s="8">
-        <v>48.2</v>
-      </c>
-      <c r="U5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="V5" s="9">
-        <v>865</v>
-      </c>
-      <c r="W5" s="10">
-        <v>871</v>
-      </c>
-      <c r="X5" s="8">
-        <v>27</v>
-      </c>
-      <c r="Y5" s="8">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="Z5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="12">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="AB5" s="12">
-        <v>2.32E-3</v>
-      </c>
-      <c r="AC5" s="12">
-        <v>6.8199999999999997E-3</v>
-      </c>
-      <c r="AD5" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1701,7 +1747,7 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>47</v>
       </c>
@@ -1790,7 +1836,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1879,7 +1925,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -1968,7 +2014,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -2055,6 +2101,272 @@
       </c>
       <c r="AC10" s="11">
         <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A09D36-6714-43C9-AD9B-965CA0A18BA2}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="15"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="15">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="15">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="15">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="15">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="15">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="15">
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="15">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="15"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="15">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="15">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="15">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="17">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="17">
+        <v>2.32E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="17">
+        <v>6.8199999999999997E-3</v>
       </c>
     </row>
   </sheetData>
